--- a/pre/reviews/gr/slimatika/2.xlsx
+++ b/pre/reviews/gr/slimatika/2.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhTOwUp7f4b28JcIQk2oaM57si+ug=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgL0sn+V/xSScSb1QqY0Ox1ubsuhw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="232">
   <si>
     <t xml:space="preserve">Slimatika </t>
   </si>
@@ -118,85 +118,194 @@
     <t>Αθήνα, Ελλάδα</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Τις</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> σταγόνες αδυνατίσματος</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>τις</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> πήρα για πρώτη φορά. Για πολύ καιρό προσπαθούσα να χάσω βάρος μέσω της διατροφής και της προπόνησης.</t>
+    </r>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ΠΛΕΟΝΕΚΤΗΜΑΤΑ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Τα αποτελέσματα δεν ήταν πολύ καλά. Σε ένα μήνα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>έχασα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> λιγότερο από 5 κιλά, αλλά έπαιρνα περισσότερα κιλά όταν άρχισα να τρώω κανονικά. Ως εκ τούτου, αποφάσισα να πειραματιστώ με αυτές τις σταγόνες, οι οποίες περιέχουν φυτικά συστατικά και ουσίες, με στόχο </t>
+    </r>
+  </si>
+  <si>
+    <t>την καύση του αποθηκευμένου λίπους</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">και του λίπους που παίρνουμε από τα τρόφιμα. Παρεμπιπτόντως δεν ήξερα ότι υπάρχουν κρυμμένα λίπη. Απορροφώνται κατά τη διάρκεια των γευμάτων και παχαίνουμε. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Περιεχουν την σύνθεση των πιπεριών , του χρώμιου</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>και πολλά άλλα. Εάν επιθυμήτε ​μπορείτε να βρειτε στο ίντερνετ έρευνες που πραγματοποιήθηκαν με την φορσκολίνη, την βιοπερίνη και το πικολινικό χρώμιο</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Αυτά τα συστατικά αποτελούν μέρος των σταγόνων διατροφής. Για παράδειγμα, η φορσκολίνη, σύμφωνα με τα αποτελέσματα έρευνας από επιστήμονες, επιβεβαίωσε την αποτελεσματικότητά της στην καύση λίπους. Επίσης, αυτή η ουσία επιταχύνει το μεταβολισμό. </t>
+    </r>
+  </si>
+  <si>
+    <t>Μου αρέσει το αποτέλεσμα!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Έχασα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> βάρος μέσα σε 2-4 εβδομάδες με ασφάλεια και αρκετά αργά,συνολικά έχασα 6 κιλά.</t>
+    </r>
+  </si>
+  <si>
+    <t>ΜΕΙΟΝΕΚΤΗΜΑΤΑ</t>
+  </si>
+  <si>
+    <t>Δεν υπάρχουν</t>
+  </si>
+  <si>
+    <t>Χριστίνα Δ.</t>
+  </si>
+  <si>
+    <t>+3450</t>
+  </si>
+  <si>
+    <t>Πάτρα, Ελλάδα</t>
+  </si>
+  <si>
+    <t>Με τις σταγόνες αδυνατίσματος</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">πρέπει να </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>εφαρμόζετε</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> ολοκληρωμένη θεραπεία</t>
+    </r>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Το αποτέλεσμα δεν θα είναι ορατό αμέσως. Πίνω τις σταγόνες σύμφωνα με τις οδηγίες </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>χρήσης</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Προσπαθώ να μην ζυγίζομαι κάθε μέρα, καθώς είναι ανησυχητικό και το βάρος μπορεί να κυμαίνεται ακόμη και από ένα ποτήρι νερό που πίνω. Για 2 εβδομάδες, εφαρμογής </t>
+    </r>
+  </si>
+  <si>
+    <t>έχασα 3 κιλά.</t>
+  </si>
+  <si>
+    <t>Αυτή την περίοδο δεν έκανα προπονήσεις. Πρέπει να χάσω τουλάχιστον άλλα 5 κιλά για να μπορέσω να αρχίσω να τρέχω και να κάνω μερικές ασκήσεις για να δυναμώσω τα πόδια και τη σπονδυλική μου στήλη. Επομένως, συνεχίζω να χάνω βάρος με αυτό το συμπλήρωμα, αλλά νομίζω ότι όταν θα ξεκινήσω να γυμνάζομαι έστω και λίγο, το αποτέλεσμα θα είναι ακόμη πιο αισθητό.</t>
+  </si>
+  <si>
+    <t>Δεν μου άρεσε πολύ το design του, αλλά δεν είναι αυτό το θέμα</t>
+  </si>
+  <si>
+    <t>Όλγα Δερμετζάκη</t>
+  </si>
+  <si>
+    <t>+5432</t>
+  </si>
+  <si>
+    <t>Κρήτη, Ελλάδα</t>
+  </si>
+  <si>
     <t>Οι σταγόνες αδυνατίσματος</t>
   </si>
   <si>
-    <t>τα πήρα για πρώτη φορά. Για πολύ καιρό προσπαθούσα να χάσω βάρος μέσω της διατροφής και της προπόνησης.</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>ΠΛΕΟΝΕΚΤΗΜΑΤΑ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τα αποτελέσματα δεν ήταν πολύ καλά. Σε ένα μήνα έχανα λιγότερο από 5 κιλά, αλλά έπαιρνα περισσότερα κιλά όταν άρχισα να τρώω κανονικά. Ως εκ τούτου, αποφάσισα να πειραματιστώ με αυτές τις σταγόνες, οι οποίες περιέχουν φυτικά συστατικά και ουσίες, με στόχο </t>
-  </si>
-  <si>
-    <t>την καύση του αποθηκευμένου λίπους</t>
-  </si>
-  <si>
-    <t xml:space="preserve">και του λίπους που παίρνουμε από τα τρόφιμα. Παρεμπιπτόντως δεν ήξερα ότι υπάρχουν κρυμμένα λίπη. Απορροφώνται κατά τη διάρκεια των γευμάτων και παχαίνουμε. Εμπεριέχεται η σύνθεση των πιπεριών , χρώμιο και πολλά άλλα. Εάν επιθυμήτε, ​​ο καθένας μπορεί να βρει στο ίντερνετ έρευνες που πραγματοποιήθηκαν με την φορσκολίνη, βιοπερίνη, πικολινικό χρώμιο. Αυτά τα συστατικά αποτελούν μέρος των σταγόνων διατροφής. Για παράδειγμα, η φορσκολίνη, σύμφωνα με τα αποτελέσματα έρευνας από επιστήμονες, επιβεβαίωσε την αποτελεσματικότητά της στην καύση λίπους. Επίσης, αυτή η ουσία επιταχύνει το μεταβολισμό. </t>
-  </si>
-  <si>
-    <t>Μου αρέσει το αποτέλεσμα!</t>
-  </si>
-  <si>
-    <t>Έχανα βάρος μέσα σε 2-4 εβδομάδες με ασφάλεια και αρκετά αργά - συνολικά έχασα 6 κιλά.</t>
-  </si>
-  <si>
-    <t>ΜΕΙΟΝΕΚΤΗΜΑΤΑ</t>
-  </si>
-  <si>
-    <t>Δεν υπάρχουν</t>
-  </si>
-  <si>
-    <t>Χριστίνα Δ.</t>
-  </si>
-  <si>
-    <t>+3450</t>
-  </si>
-  <si>
-    <t>Πάτρα, Ελλάδα</t>
-  </si>
-  <si>
-    <t>Με τις σταγόνες αδυνατίσματος</t>
-  </si>
-  <si>
-    <t>πρέπει να εφαρμόσετε ολοκληρωμένη θεραπεία</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Το αποτέλεσμα δεν θα είναι ορατό αμέσως. Πίνω τις σταγόνες σύμφωνα με τις οδηγίες. Προσπαθώ να μην ζυγίζομαι κάθε μέρα, καθώς είναι ανησυχητικό και το βάρος μπορεί να κυμαίνεται ακόμη και από ένα ποτήρι νερό που πίνω. Για 2 εβδομάδες, εφαρμογής </t>
-  </si>
-  <si>
-    <t>έχασα 3 κιλά.</t>
-  </si>
-  <si>
-    <t>Αυτή την περίοδο δεν έκανα προπονήσεις. Πρέπει να χάσω τουλάχιστον άλλα 5 κιλά για να μπορέσω να αρχίσω να τρέχω και να κάνω μερικές ασκήσεις για να δυναμώσω τα πόδια και τη σπονδυλική μου στήλη. Επομένως, συνεχίζω να χάνω βάρος με αυτό το συμπλήρωμα, αλλά νομίζω ότι όταν θα ξεκινήσω να γυμνάζομαι έστω και λίγο, το αποτέλεσμα θα είναι ακόμη πιο αισθητό.</t>
-  </si>
-  <si>
-    <t>Δεν μου άρεσε πολύ το design του, αλλά δεν είναι αυτό το θέμα</t>
-  </si>
-  <si>
-    <t>Όλγα Δερμετζάκη</t>
-  </si>
-  <si>
-    <t>+5432</t>
-  </si>
-  <si>
-    <t>Κρήτη, Ελλάδα</t>
-  </si>
-  <si>
     <t>μπορούν να χαρακτηριστούν ως φυσικό προϊόν και ασφαλές λόγω της καλής σύνθεσείς τους, στην οποία δεν υπάρχει επιβλαβείς ουσίες</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t xml:space="preserve">Δοκίμασα την επίδραση αυτής της θεραπείας στον εαυτό μου. Το αρχικό βάρος ήταν 75 kg με ύψος 1 m 65 cm. Δεν είχα παρενέργειες. Την πρώτη μέρα, εμφανίστηκαν μικρά σπυράκια στο πρόσωπο, αλλά δεν το συσχετίζω με τη λήψη των σταγόνων. Πρώτα απ 'όλα, με εντυπωσιάστικα από την εξαιρετική σύνθεση των χαπιών: βιοπερίνη, πιπεριά ινδίας και καγιέν, εκχύλισμα φύλλων ελιάς, πικολινικό χρώμιο και φορσκολίνη. Όλα αυτά τα συστατικά ενεργοποιούν το μεταβολισμό και εκτελούν τη λειτουργία των λιπολυτικών, δηλαδή  </t>
+    <r>
+      <t xml:space="preserve">Δοκίμασα την επίδραση αυτής της θεραπείας στον εαυτό μου. Το αρχικό βάρος ήταν 75 kg με ύψος </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>1,65</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> cm. Δεν είχα παρενέργειες. Την πρώτη μέρα, εμφανίστηκαν μικρά σπυράκια στο πρόσωπο, αλλά δεν το συσχετίζω με τη λήψη των σταγόνων. Πρώτα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>απ 'όλα, εντυπωσιάστικα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> από την εξαιρετική σύνθεση των </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>σταγόνων</t>
+    </r>
+    <r>
+      <t xml:space="preserve">: βιοπερίνη, πιπεριά ινδίας και καγιέν, εκχύλισμα φύλλων ελιάς, πικολινικό χρώμιο και φορσκολίνη. Όλα αυτά τα συστατικά ενεργοποιούν το μεταβολισμό και εκτελούν τη λειτουργία των λιπολυτικών, δηλαδή </t>
+    </r>
   </si>
   <si>
     <t>καίνε το λίπος.</t>
@@ -205,7 +314,15 @@
     <t>Την πρώτη εβδομάδα, έχασα μόνο 1 κιλό. στην αρχή ήμουν αναστατωμένη, αλλά αποφάσισα να συνεχίσω να παίρνω τις σταγόνες. Στη συνέχεια, έχανα πιο γρήγορα τα περιττά κιλά όταν κάθε βράδυ έκανε ελαφριά γυμναστική και κοιλιακούς.</t>
   </si>
   <si>
-    <t>Εμένα μου άρεσαν, πιο κάτω είναι η απόδειξη</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Δεν υπαρχουν μειονεκτήματα</t>
+    </r>
+    <r>
+      <t>, πιο κάτω είναι η απόδειξη</t>
+    </r>
   </si>
   <si>
     <t>Ελένη Ρ.</t>
@@ -229,7 +346,27 @@
     <t>στις σταγόνες</t>
   </si>
   <si>
-    <t>ότι περιέχουν πιπεριά της Γουινέας και του καγιέν, φοβήθηκα λίγο. Αλλά έλεγξα σε αξιόπιστα site ότι μόνο αυτές οι πιπεριές επιταχύνουν το μεταβολισμό και καίνε το λίπος. Επομένως, στην πραγματικότητα χρησιμοποιούνται ακόμη και από τους αθλητές που είναι fit. Νομίζω ότι ο καθιστικός τρόπος ζωής μου μετά τα 30, επιβράδυνε σημαντικά τον μεταβολισμό μου. Πραγματικά βασίζομαι σε αυτές τις σταγόνες!! Δεν το μετάνιωσα από 78 έχασε 7 κιλά σε 1,5 μήνες. Τέλεια!</t>
+    <r>
+      <t xml:space="preserve">ότι περιέχουν πιπεριά της Γουινέας και του καγιέν, φοβήθηκα λίγο. Αλλά </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>τα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> έλεγξα σε αξιόπιστα site ότι μόνο αυτές οι πιπεριές επιταχύνουν το μεταβολισμό και καίνε το λίπος. Επομένως, στην πραγματικότητα χρησιμοποιούνται ακόμη και από τους αθλητές που είναι fit. Νομίζω ότι ο καθιστικός τρόπος ζωής μου μετά τα 30, επιβράδυνε σημαντικά τον μεταβολισμό μου. Πραγματικά βασίζομαι σε αυτές τις σταγόνες!! Δεν το μετάνιωσα από 78 έχασε 7 κιλά σε 1,5 μήνες. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Τέλειο</t>
+    </r>
+    <r>
+      <t>!</t>
+    </r>
   </si>
   <si>
     <t>Η συσκευασία τελιώνει γρήγορα, έπρεπε να είχα παραγγείλει 2</t>
@@ -244,13 +381,32 @@
     <t>Τρίπολη, Ελλάδα</t>
   </si>
   <si>
-    <t>Επισκέφτηκα τον ενδοκρινολόγο και τον ρώτησα για το πικολινικό χρώμιο και άλλες ουσίες από τη σύνθεση αυτών των σταγόνων</t>
+    <r>
+      <t>Επισκέφτηκα τον ενδοκρινολόγο και τον ρώτησα για το πικολινικό χρώμιο και</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> για τις άλλες ουσίες που περιέχουν οι σταγόνες</t>
+    </r>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t xml:space="preserve">Το χρώμιο, όπως είπε ο γιατρός, χρησιμοποιείται ξεχωριστά για την ομαλοποίηση των επιπέδων γλυκόζης, χοληστερόλης και λίπους. Η ουσία βοηθάει στην καλή λειτουγρία του μεταβολισμού και μειώνει την όρεξη. Όταν έκανα όλες τις ερωτήσεις στον γιατρό και ήμουν πεπεισμένη για την ασφάλεια της σύνθεσής του, άρχισα να παίρνω </t>
+    <r>
+      <t xml:space="preserve">Το χρώμιο, όπως είπε ο γιατρός, χρησιμοποιείται ξεχωριστά για την ομαλοποίηση των επιπέδων γλυκόζης, χοληστερόλης και λίπους. Η ουσία βοηθάει στην καλή λειτουγρία του μεταβολισμού και μειώνει την όρεξη. Όταν έκανα όλες τις ερωτήσεις στον γιατρό και ήμουν πεπεισμένη για την ασφάλεια της σύνθεσής </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>τους</t>
+    </r>
+    <r>
+      <t xml:space="preserve">, άρχισα να παίρνω </t>
+    </r>
   </si>
   <si>
     <t>το Slimatika</t>
@@ -259,16 +415,46 @@
     <t>σε σταγόνες. Το βάρος μου ήταν 90 kg. Είναι παρα πολλά για το σώμα μου. Μπορώ να πω ότι ξαφνικά πήρα κιλά λόγω του ότι άλλαξα δουλειά, πλέον κάνω καθιστική δουλειά. Οι σταγόνες κόβουν την όρεξη: Άρχισα να χορταίνω με τις μικρές μερίδες. Δεν είχα παρενέργειες. Τώρα είναι η τρίτη εβδομάδα θεραπείας. Κατά τη διάρκεια αυτής της περιόδου, έχασα 7 κιλά. Νομίζω ότι αυτό είναι ένα εξαιρετικό αποτέλεσμα διότι δεν έκανα καθόλου προπονήσεις. Συν ότι περιοριζόμουν στη διατροφή.</t>
   </si>
   <si>
-    <t>Με τις κάψουλες</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ήταν πολύ πιο εύκολο να κάνω απ 'ό, τι στο παρελθόν που απλά έκανα δίαιτα και ήμουν νευρική. Αυτές οι σταγόνες δεν προκαλούν άγχος σχετικά με </t>
+    <r>
+      <t xml:space="preserve">Με τις </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>σταγόνες</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ήταν πολύ πιο εύκολο</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> να κάνω αυτό που δεν μπορόυσα να κάνω στο παρελθόν</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> που απλά έκανα δίαιτα και ήμουν νευρική. Αυτές οι σταγόνες δεν προκαλούν άγχος σχετικά με </t>
+    </r>
   </si>
   <si>
     <t>τους διατροφικούς περιορισμούς.</t>
   </si>
   <si>
-    <t>Η δίαιτα είναι αρκετά εύκολη. Επιπλέον, ένιωθα ένα κύμα δύναμης, άρχισα να προλαβαίνω να κάνω πολύ περισσότερα πράγματα από ότι πριν.</t>
+    <r>
+      <t xml:space="preserve">Η δίαιτα είναι αρκετά εύκολη. Επιπλέον, ένιωθα </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>περισσότερη ενέργεια</t>
+    </r>
+    <r>
+      <t>, άρχισα να προλαβαίνω να κάνω πολύ περισσότερα πράγματα από ότι πριν.</t>
+    </r>
   </si>
   <si>
     <t>Δεν βρήκα</t>
@@ -283,10 +469,29 @@
     <t>Το χρώμιο είναι πολύ σημαντικό για την απώλεια βάρους. Καίει τις θερμίδες ειδικά κατά τη διάρκεια της άσκησης</t>
   </si>
   <si>
-    <t xml:space="preserve">Αυτό διευκολύνει σημαντικά το αδυνάτισμα. Επιπλέον, το χρώμιο χρησιμοποιείται για την αντίσταση στην ινσουλίνη, την οποία πολλοί δεν γνωρίζουν καν. Αυτή η κατάσταση συχνά οδηγεί σε διαβήτη και είναι μια τόσο αόρατη αιτία που έχει ως αποτέλεσμα την αύξηση βάρους. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Το Slimatika </t>
+    <r>
+      <t xml:space="preserve">Αυτό διευκολύνει σημαντικά το αδυνάτισμα. Επιπλέον, το χρώμιο χρησιμοποιείται για την αντίσταση στην ινσουλίνη, την οποία πολλοί δεν γνωρίζουν καν. Αυτή η κατάσταση συχνά οδηγεί σε διαβήτη και είναι μια τόσο αόρατη αιτία που έχει ως αποτέλεσμα την αύξηση </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>του</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> βάρους. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Τις</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Slimatika </t>
+    </r>
   </si>
   <si>
     <t>έχει χρώμιο. Ο ενδοκρινολόγος με συμβούλεψε να χρησιμοποιήσω την μετφορμίνη. Απλώς αποτρέπει την απορρόφηση της υπερβολικής γλυκόζης και αποτρέπει την ανεπιθύμητη</t>
@@ -295,7 +500,27 @@
     <t>αύξηση βάρους.</t>
   </si>
   <si>
-    <t>Το πικολινικό χρώμιο καταπολεμά τις ορέξεις της ζάχαρης. Το πρόβλημα ήταν ότι έτρωγα πολλά γλυκά, είχα μεγάλο άγχος και προβλήματα. Συνήθιζα να μασάω συνεχώς κάτι γλυκό και νόστιμο. Επομένως, στους περιορισμούς των κινήσεων, το βάρος άρχισε να αυξάνεται ενεργά.</t>
+    <r>
+      <t xml:space="preserve">Το πικολινικό χρώμιο καταπολεμά τις ορέξεις </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>στη ζάχαρη</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Το πρόβλημα ήταν ότι έτρωγα πολλά γλυκά, είχα μεγάλο άγχος και προβλήματα. Συνήθιζα να μασάω συνεχώς κάτι γλυκό και νόστιμο. Επομένως, στους περιορισμούς των κινήσεων, το βάρος άρχισε να αυξάνεται </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>γρήγορα</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <t>Αυτό που μου αρέσει σε αυτές τις σταγόνες</t>
@@ -313,7 +538,18 @@
     <t>Οι σταγόνες</t>
   </si>
   <si>
-    <t>περιέχουν επίσης πιπέρι της Γουινέας και του καγιέν. Αυτές οι ουσίες είναι πολύ χρήσιμες για το μεταβολισμό, ειδικά στη μέση ηλικία, όταν ο μεταβολισμός επιβραδύνεται για πολλούς.</t>
+    <r>
+      <t xml:space="preserve">περιέχουν επίσης πιπέρι της Γουινέας και του καγιέν. Αυτές οι ουσίες είναι πολύ χρήσιμες για το μεταβολισμό, ειδικά στη μέση ηλικία, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>που επιβραδύνεται</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> για πολλούς.</t>
+    </r>
   </si>
   <si>
     <t>Ακόμα δεν έχω βρει</t>
@@ -331,13 +567,46 @@
     <t>στο αδυνάτισμα</t>
   </si>
   <si>
-    <t xml:space="preserve">Έπαιρνα διάφορα συμπλήρώματα, τόσο φυτικά όσο και χημικά, και αρκετά επικίνδυνα, τα οποία απαγορεύονται στην Ευρώπη, αλλά τα πουλάνε ακόμα στα φαρμακεία. Το αποτέλεσμα ήταν αρκετά καλό, αλλά το βάρος επέστρεψε γρήγορα. Δοκίμαζα διάφορα συμπληρώματα και βρήκα </t>
-  </si>
-  <si>
-    <t>αυτές οι σταγόνες αδυνατίσματος Slimatika.</t>
-  </si>
-  <si>
-    <t>Αποφάσισα να τα δοκιμάσω. Παραδόξως δεν είχα κάποιες παρενέργειες. Ο καρδιακός παλμός ήταν ομαλός, αν και στη σύνθεση υπάρχουν καυτές πιπεριές. Έμεινα έκπληκτη από το ότι είχε περιορίσει πολύ εύκολα τα κέικ και τα γλυκά στη διατροφή μου και σταμάτησε να πίνω σόδες. Τώρα δεν με τραβάνε τα προιόντα με γλυκόζη. Ευχαριστώ τον κατασκευαστή για αυτό το συμπλήρωμα.</t>
+    <r>
+      <t>Έπαιρνα διάφορα συμπλήρώματα, τ</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>όσο με φυτικές όσο και με χημικές ουσίες</t>
+    </r>
+    <r>
+      <t xml:space="preserve">, και αρκετά επικίνδυνα, τα οποία απαγορεύονται στην Ευρώπη, αλλά τα πουλάνε ακόμα στα φαρμακεία. Το αποτέλεσμα ήταν αρκετά καλό, αλλά το βάρος επέστρεψε γρήγορα. Δοκίμαζα διάφορα συμπληρώματα και βρήκα </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">αυτές </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>τις</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> σταγόνες αδυνατίσματος Slimatika.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Αποφάσισα να </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>τις</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> δοκιμάσω. Παραδόξως δεν είχα κάποιες παρενέργειες. Ο καρδιακός παλμός ήταν ομαλός, αν και στη σύνθεση υπάρχουν καυτές πιπεριές. Έμεινα έκπληκτη από το ότι είχε περιορίσει πολύ εύκολα τα κέικ και τα γλυκά στη διατροφή μου και σταμάτησε να πίνω σόδες. Τώρα δεν με τραβάνε τα προιόντα με γλυκόζη. Ευχαριστώ τον κατασκευαστή για αυτό το συμπλήρωμα.</t>
+    </r>
   </si>
   <si>
     <t>Γωγώ</t>
@@ -352,7 +621,18 @@
     <t>Μου αρέσει να δοκιμάζω νέα πράγματα, αλλά πρώτα διαβάζω πολλές κριτικές και πολλά φόρουμ. Μετά τον τοκετό, πρόσθεσε δραματικά 10 κιλά. Δοκίμασα διάφορες θεραπείες, εξαντλήθηκα με τους προσομοιωτές, αλλά το αποτέλεσμα δεν ήταν εφικτό.</t>
   </si>
   <si>
-    <t>Οι σταγόνες Slimatika είναι εξαιρετικά,</t>
+    <r>
+      <t xml:space="preserve">Οι σταγόνες Slimatika είναι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>εξαιρετικές</t>
+    </r>
+    <r>
+      <t>,</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">απλά ιδανικά για μένα, καθώς δεν υπάρχει πολύς χρόνος να παίρνω μαζί μου φαγητό και δεν μπορώ να τρώω κάθε μία ώρα λόγω του ότι είμαι πολύ απασχολημένη. Ωστόσο, πιστεύω ότι </t>
@@ -361,13 +641,44 @@
     <t xml:space="preserve">οι σταγόνες αδυνατίσματος, </t>
   </si>
   <si>
-    <t xml:space="preserve">δεν θα είναι αρκετά. Αρκεί μόνο για 20 λεπτά τζόκινγκ ή έναν γρήγορο περίπατο. Παρατήρησα ότι τα χάπια αυξάνουν την αποτελεσματικότητα και θέλω πραγματικά να κινούμαι. Κουράζομαι λιγότερο στη δουλειά, βρίσκω χρόνο για παιχνίδια με το παιδί μου, κάνω ψώνια και πηγαίνω στον κινηματογράφο. Είμαι πολύ ευχαριστημένη με το αποτέλεσμα! Θα συνεχίσω </t>
+    <r>
+      <t xml:space="preserve">δεν θα είναι αρκετά. Αρκεί μόνο για 20 λεπτά τζόκινγκ ή έναν γρήγορο </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>περπάτημα</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Παρατήρησα ότι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>οι σταγόνες αυξάνουν την αποτελεσματικότητα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> και θέλω πραγματικά να κινούμαι. Κουράζομαι λιγότερο στη δουλειά, βρίσκω χρόνο για παιχνίδια με το παιδί μου, κάνω ψώνια και πηγαίνω στον κινηματογράφο. Είμαι πολύ ευχαριστημένη με το αποτέλεσμα! Θα συνεχίσω </t>
+    </r>
   </si>
   <si>
     <t>να παίρνω τις σταγόνες,</t>
   </si>
   <si>
-    <t>νομίζω ότι δεν θα σταματήσω για τουλάχιστον άλλον έναν μήνα. Μέχρι σήμερα έχω χάσει 7 κιλά.</t>
+    <r>
+      <t>νομίζω ότι δεν θα</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> τις παιρνω</t>
+    </r>
+    <r>
+      <t xml:space="preserve">  για τουλάχιστον άλλον έναν μήνα. Μέχρι σήμερα έχω χάσει 7 κιλά.</t>
+    </r>
   </si>
   <si>
     <t>Μαρία Π.</t>
@@ -382,13 +693,32 @@
     <t>αδυνατίσματος.</t>
   </si>
   <si>
-    <t>Μέχρι την ηλικία των 35 ετών, δεν υπήρχαν ιδιαίτερα προβλήματα με το υπερβολικό βάρος. Αλλά αργότερα όλα άλλαξαν, ακόμη και με μια κανονική δίαιτα, άρχιζα να παίρνω κιλά. Πήγα σε έναν διατροφολόγο, πήγα να με δει ο ενδοκρινολόγος, αλλά οι ορμόνες μου ήταν εντάξει. Είπαν ότι ήταν απλώς λίγο πριν την κλιμακτήριο. Η πέψη επιδεινώθηκε λίγο. Ήθελα ένα φυτικό συμπλήρωμα για να λύσω αμέσως όλα αυτά τα προβλήματα.</t>
-  </si>
-  <si>
-    <t>Οι σταγόνες είναι πολύ καλά</t>
-  </si>
-  <si>
-    <t>ακριβώς για τη σύνθεσή τους. Περιέχουν συστατικά τόσο για την απώλεια βάρους όσο και για την αποκατάσταση της ροής του αίματος στα έντερα και την αύξηση του μεταβολισμού. Μίλησα με πολλούς από τους φίλους μου και παρατήρησαν επίσης ότι άρχισαν να αναρρώνουν γρηγορότερα μετά από 40 χρόνια. Το συνδέω προσωπικά με αλλαγές που σχετίζονται με την ηλικία, όταν οι εσωτερικές διαδικασίες επιβραδύνονται και πρέπει να πάρετε ακριβώς κάτι που διεγείρει το μεταβολισμό. Τώρα δεν παίρνω πλέον τις σταγόνες . Μετά από ένα μήνα αποφάσισα να κάνω ένα διάλειμμα για το καλοκαίρι. Θα δω πώς διατηρείται το βάρος μου. Το χειμώνα, σκοπεύω να τα παίρνω ξανά, ώστε να μην μου επιστρέψουν τα περιττά κιλά.</t>
+    <r>
+      <t xml:space="preserve">Μέχρι την ηλικία των 35 ετών, δεν υπήρχαν ιδιαίτερα προβλήματα με το υπερβολικό βάρος. Αλλά αργότερα όλα άλλαξαν, ακόμη και με μια κανονική δίαιτα, άρχιζα να παίρνω κιλά. Πήγα σε έναν διατροφολόγο, πήγα να με δει ο ενδοκρινολόγος, αλλά οι ορμόνες μου ήταν εντάξει. Είπε ότι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>είμαι</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> λίγο πριν την κλιμακτήριο. Η πέψη επιδεινώθηκε λίγο. Ήθελα ένα φυτικό συμπλήρωμα για να λύσω αμέσως όλα αυτά τα προβλήματα.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Οι σταγόνες είναι πολύ </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>καλές</t>
+    </r>
+  </si>
+  <si>
+    <t>ακριβώς για τη σύνθεσή τους. Περιέχουν συστατικά τόσο για την απώλεια βάρους όσο και για την αποκατάσταση της ροής του αίματος στα έντερα και την αύξηση του μεταβολισμού. Μίλησα με πολλούς από τους φίλους μου και με παρατήρησαν επίσης ότι άρχισαν να αναρρώνουν γρηγορότερα μετά από 40 χρόνια. Το συνδέω προσωπικά με αλλαγές που σχετίζονται με την ηλικία, όταν οι εσωτερικές διαδικασίες επιβραδύνονται και πρέπει να πάρετε ακριβώς κάτι που διεγείρει το μεταβολισμό. Τώρα δεν παίρνω πλέον τις σταγόνες . Μετά από ένα μήνα αποφάσισα να κάνω ένα διάλειμμα για το καλοκαίρι. Θα δω πώς διατηρείται το βάρος μου. Το χειμώνα, σκοπεύω να τα παίρνω ξανά, ώστε να μην μου επιστρέψουν τα περιττά κιλά.</t>
   </si>
   <si>
     <t>Θα ήθελα πιο κομψή συσκευασία</t>
@@ -409,13 +739,44 @@
     <t>43</t>
   </si>
   <si>
-    <t>Αυτό δεν ήταν απροσδόκητο για μένα, γιατί συνηθίζω να έχω μια λεπτή φιγούρα. Αμέσως αποφάσισα να φτιάξω την σιλουέτα μου με τη βοήθεια της προπόνησης και της διατροφής. Αλλά ένιωσα πολύ αδύναμη και σταμάτησα λόγω μειωμένης δραστηριότητας και ανικανότητας να ασχολούμαι με το παιδί μου. Άρχισα να ψάχνω για φυτικά συμπληρώματα. Σύμφωνα με τις κριτικές,</t>
+    <r>
+      <t xml:space="preserve">Αυτό δεν ήταν απροσδόκητο για μένα, γιατί συνηθίζω να έχω μια λεπτή </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>σιλουέτα</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. Αμέσως αποφάσισα να φτιάξω την </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>σιλουέτα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> μου με τη βοήθεια της προπόνησης και της διατροφής. Αλλά ένιωσα πολύ αδύναμη και σταμάτησα λόγω μειωμένης δραστηριότητας και ανικανότητας να ασχολούμαι με το παιδί μου. Άρχισα να ψάχνω για φυτικά συμπληρώματα. Σύμφωνα με τις κριτικές,</t>
+    </r>
   </si>
   <si>
     <t>βρήκα το Slimatika.</t>
   </si>
   <si>
-    <t>Κοίταξα τα χαρακτηριστικά κάθε συστατικού της σύνθεσης και φαίνεται να είναι ασφαλές. Τις πρώτες 2 εβδομάδες, κατάφερα να χάσω 2 κιλά. Δεν είναι αρκετό, αλλά πάντα χάνω τα περιττά κιλά αργά. Την τρίτη εβδομάδα,</t>
+    <r>
+      <t xml:space="preserve">Κοίταξα τα χαρακτηριστικά κάθε συστατικού της σύνθεσης και φαίνεται να είναι ασφαλές. Τις πρώτες 2 εβδομάδες, κατάφερα να χάσω 2 κιλά. Δεν είναι αρκετό, αλλά πάντα χάνω τα περιττά κιλά </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>σταδιακά</t>
+    </r>
+    <r>
+      <t>. Την τρίτη εβδομάδα,</t>
+    </r>
   </si>
   <si>
     <t>έχασε</t>
@@ -436,7 +797,15 @@
     <t>Χαλκίδα, Ελλάδα</t>
   </si>
   <si>
-    <t>Οι σταγόνες Slimatika τα παρήγγειλα μαζί με την φίλη μου</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Τις Slimatika τις</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> παρήγγειλα μαζί με την φίλη μου</t>
+    </r>
   </si>
   <si>
     <t>Προσελκύθηκα από την σίγουρα προσιτή τιμή. Πριν από αυτό, πέταξα πολλά χρήματα σε διάφορα συμπληρώματα, που διαφημίζουν, αλλά τα οποία αποδείχθηκαν ψεύτικα. Επομένως, πήρα μια συσκευασία για δύο. Η σύνθεση περιέχει πολλά καλά πράγματα: φορσκολίνη, χρώμιο, πιπέρι, βιοπερίνη. Πιστεύω ότι η επίδραση της απώλειας βάρους συμβαίνει ακριβώς λόγω της περίπλοκης δράσης αυτών των ουσιών. Αρχικά, το βάρος μου ήταν 70 κιλά και της φίλης μου ήταν 73. Τις πρώτες τρεις μέρες, δεν έχασα καθόλου, αλλά η φίλη μου έχασε ένα κιλό. Η ενεργή απώλεια βάρους ξεκίνησε στο τέλος της πρώτης εβδομάδας. Έχασα 3-4 κιλά ταυτόχρονα. Τότε συνειδητοποίησαμε ότι το συμπλήρωμα λειτουργεί πραγματικά και παραγγείλαμε μία ολοκληρωμένη θεραπεία για δύο άτομα. Συνεχίζουμε να χάνουμε βάρος. Ευχαριστώ πολύ τον κατασκευαστή για ένα τέτοιο συμπλήρωμα, το οποίο είναι και αποτελεσματικό και ταυτόχρονα δεν είναι επιβλαβές για την υγεία!</t>
@@ -451,7 +820,18 @@
     <t>Τρίκαλα, Ελλάδα</t>
   </si>
   <si>
-    <t>Για μένα, η σύνθεση των σταγόνων υφαινόταν κάπως ασυνήθιστη και μάλλον πολύ απλή.</t>
+    <r>
+      <t xml:space="preserve">Για μένα, η σύνθεση των σταγόνων </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>φαινόταν</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> κάπως ασυνήθιστη και μάλλον πολύ απλή.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -486,7 +866,18 @@
     <t>11</t>
   </si>
   <si>
-    <t>Στο συμπλήρωμα διατροφής δεν υπάρχουν επικίνδυνες ουσίες, γι 'αυτό πιστεύω ότι μπορείτε να χρησιμοποιείτε τα χάπια τακτικά, αλλά πρέπει να κάνετε ένα διάλειμμα αρκετών μηνών. Η τιμή είναι πολύ χαμηλή. Δεν παρατήρησα παρενέργειες στον οργανισμό μου. Τις πρώτες μέρες δεν έχασα καθόλου βάρος. Νομίζω ότι τα φυτικά συστατικά τους  πρέπει να συσσωρευτούν στον οργανισμό και μόνο τότε θα αρχίσουν να δρουν. Έκανα ασκήσεις κάθε πρωί για 10 λεπτά, μερικές φορές το βράδυ πήγαινα για τρέξιμο. Μου άρεσε πολύ το αποτέλεσμα: σε ένα μήνα έχασα 7 κιλά. Χωρίς εξαντλητικές προπονήσεις και δίαιτες. Το προτείνω σε όλους!</t>
+    <r>
+      <t>Στο συμπλήρωμα διατροφής δεν υπάρχουν επικίνδυνες ουσίες, γι 'αυτό πιστεύω ότι μπορείτε να χρησιμοποιείτε</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> το συμπλήρωμα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> τακτικά, αλλά πρέπει να κάνετε ένα διάλειμμα αρκετών μηνών. Η τιμή είναι πολύ χαμηλή. Δεν παρατήρησα παρενέργειες στον οργανισμό μου. Τις πρώτες μέρες δεν έχασα καθόλου βάρος. Νομίζω ότι τα φυτικά συστατικά τους  πρέπει να συσσωρευτούν στον οργανισμό και μόνο τότε θα αρχίσουν να δρουν. Έκανα ασκήσεις κάθε πρωί για 10 λεπτά, μερικές φορές το βράδυ πήγαινα για τρέξιμο. Μου άρεσε πολύ το αποτέλεσμα: σε ένα μήνα έχασα 7 κιλά. Χωρίς εξαντλητικές προπονήσεις και δίαιτες. Το προτείνω σε όλους!</t>
+    </r>
   </si>
   <si>
     <t>Αλεξάνδρα</t>
@@ -505,7 +896,16 @@
   </si>
   <si>
     <r>
-      <t>Οι φίλες μου σοκαρίστηκαν όταν ανακάλυψαν ότι η μητέρα μου παρήγγειλε ένα προϊόν αδυνατίσματος. Συνήθως οι μητέρες αποθαρρύνουν τις κόρες τους από τη λήψη των σταγόνων. Αλλά εγώ είμαι σε διαφορετική κατάσταση. Και είμαι πολύ ευγνώμων στη μητέρα μου, γιατί το συμπλήρωμα λειτουργεί πραγματικά. Τα χάπια πίνονται εύκολα. Δεν έχω κάποια αμφιβολία για τη σύνθεση τους</t>
+      <t xml:space="preserve">Οι φίλες μου σοκαρίστηκαν όταν ανακάλυψαν ότι η μητέρα μου παρήγγειλε ένα προϊόν αδυνατίσματος. Συνήθως οι μητέρες αποθαρρύνουν τις κόρες τους από τη λήψη των σταγόνων. Αλλά εγώ είμαι σε διαφορετική κατάσταση. Και είμαι πολύ ευγνώμων στη μητέρα μου, γιατί το συμπλήρωμα λειτουργεί πραγματικά. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Οι σταγόνες</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> πίνονται εύκολα. Δεν έχω κάποια αμφιβολία για τη σύνθεση τους</t>
     </r>
     <r>
       <rPr>
@@ -521,7 +921,15 @@
     <t>Δέσποινα</t>
   </si>
   <si>
-    <t>Το Slimatika είναι φυσικό προϊόν!</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>Οι</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> Slimatika είναι φυσικό προϊόν!</t>
+    </r>
   </si>
   <si>
     <t>Δεδομένου ότι η δίαιτα δεν μου έδωσε το επιθυμητό αποτέλεσμα. Ένας ειδικός με συμβούλεψε για μια ασφαλή και φυτική σύνθεση για να ξεκινήσει ο μεταβολισμός μου να λειτουργεί σωστά. Μετά τον τοκετό, υπήρχαν ορμονικές διαταραχές, τις οποίες εξάλειψε. Επομένως, είδα ένα αισθητό αποτέλεσμα. Ξεκίνησε με βάρος 70 κιλών. Κάθε εβδομάδα έχανα μόνο 2 κιλά. Τότε αποφάσισα να σταματήσω στο τέλος του πρώτου μήνα. Το συμπλήρωμα διατροφής με βοήθησε να χάσω έως και 7 κιλά - νομίζω ότι αυτό είναι ένα καταπληκτικό αποτέλεσμα !!! Θα συνεχίσω να διατηρώ μια σωστή διατροφή και τακτική άσκηση.</t>
@@ -560,10 +968,29 @@
     <t>Όταν ζυγίστηκα, ήμουν απλώς σοκαρισμένη! Απομένουν μόνο 2 εβδομάδες για την επέτειο του γάμου μου. Έπρεπε οποσδήποτε να χάσω τα περιττά κιλά. Δεν βασίζομαι στις προπονήσεις και στη διατροφή, καθώς αυτές οι μέθοδοι απαιτούν  αρκετούς μήνες δουλειάς και πολλών ειδών περιορισμούς. Δεν μπορούσα να κάνω αυστηρές δίαιτες, διότι εμφανίζονται εξανθήματα στο πρόσωπό μου και κύκλοι κάτω από τα μάτια. Μελέτησα όλα τα προϊόντα με τα φυτικά τους συστατικά και επέλεξα</t>
   </si>
   <si>
-    <t>οι σταγόνες αδυνατίσματος Slimatika</t>
-  </si>
-  <si>
-    <t>.  Αποφάσισα να ενεργήσω σε όλα τα επίπεδα: δεν έτρωγα τα βράδια και έκοψα τα γλυκά. Πραγματικά ήλπιζα για το αναμενόμενο αποτέλεσμα και τα κατάφερα, την πρώτη εβδομάδα έχασα 4 κιλά. Παραδόξως, το βράδυ το λίπος είχε εξαφανιστεί. Δεν ήθελα να φάω ούτε ένα γλυκό. Κατά τη δεύτερη εβδομάδα έχασα μόνο 2 κιλά, αλλά αυτό ήταν περισσότερο από αρκετό για μένα. Έχασα όλα όσα είχα φάει στις διακοπές της Πρωτοχρονιάς και μπόρεσα να φορέσω το βραδινό μου φόρεμα, και όχι απλά το φόρεσα αλλά έλαμπα  καθ 'όλη τη διάρκεια της βραδινής επετείου.</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>τις</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> σταγόνες αδυνατίσματος Slimatika</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.  Αποφάσισα να ενεργήσω σε όλα τα επίπεδα: δεν έτρωγα τα βράδια και έκοψα τα γλυκά. Πραγματικά ήλπιζα για το αναμενόμενο αποτέλεσμα και τα κατάφερα, την πρώτη εβδομάδα έχασα 4 κιλά. Παραδόξως, το βράδυ το λίπος είχε εξαφανιστεί. Δεν ήθελα να φάω ούτε ένα γλυκό. Κατά τη δεύτερη εβδομάδα έχασα μόνο 2 κιλά, αλλά αυτό </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>ήταν αρκετό</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> για μένα. Έχασα όλα όσα είχα φάει στις διακοπές της Πρωτοχρονιάς και μπόρεσα να φορέσω το βραδινό μου φόρεμα, και όχι απλά το φόρεσα αλλά έλαμπα  καθ 'όλη τη διάρκεια της βραδινής επετείου.</t>
+    </r>
   </si>
   <si>
     <t>Γεωργία В.</t>
@@ -575,7 +1002,18 @@
     <t>Κάθε συστατικό των Slimatika μπορείτε να τα ελέγξετε στο ίντερνετ</t>
   </si>
   <si>
-    <t>Η βιοπερίνη, η φορσκολίνη, το πικολινικό χρώμιο έχουν αποδειχθεί αποτελεσματικές σε αρκετές μελέτες. Εμπνέει εμπιστοσύνη. Το πικολινικό χρώμιο λαμβανόταν ξεχωριστά κατά τη δίαιτα. Και μειώνει πραγματικά την εξάρτηση από τα γλυκά και την όρεξη. Τα χάπια είναι μεσαίου μεγέθους και είναι αρκετά εύκολο στη χρήση. Εκτός από την απώλεια βάρους, παρατήρησα ένα πολύ ευχάριστο πλεονέκτημα ότι αποκαταστά τη λειτουργία του εντέρου. Πλέον έχω περισσότερη ενέργεια. Για 3 εβδομάδες έχασα 4 κιλά. Δεν είχα τέτοιο αποτέλεσμα ακόμη και με αυστηρές δίαιτες. Είμαι πολύ ευχαριστημένη! Το Slimatika   αξίζει σίγουρα την προσοχή σας. Χωρίς προπόνηση και με μικρούς περιορισμούς στα τρόφιμα, δεν θα χάσετε πολύ βάρος. Αν όμως έχετε επιπλέον 5-10 κιλά, μπορείτε να χρησιμοποιήσετε αυτό το συμπλήρωμα.</t>
+    <r>
+      <t>Η βιοπερίνη, η φορσκολίνη, το πικολινικό χρώμιο έχουν αποδειχθεί αποτελεσματικές σε αρκετές μελέτες. Εμπνέει εμπιστοσύνη. Το πικολινικό χρώμιο λαμβανόταν ξεχωριστά κατά τη δίαιτα. Και μειώνει πραγματικά την εξάρτηση από τα γλυκά και την όρεξη. Τα χάπια είναι μεσαίου μεγέθους και είναι αρκετά εύκολο στη χρήση. Εκτός από την απώλεια βάρους, παρατήρησα ένα πολύ ευχάριστο πλεονέκτημα ότι αποκαταστά τη λειτουργία του εντέρου. Πλέον έχω περισσότερη ενέργεια. Για 3 εβδομάδες έχασα 4 κιλά. Δεν είχα τέτοιο αποτέλεσμα ακόμη και με αυστηρές δίαιτες. Είμαι πολύ ευχαριστημένη!</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> Οι Slimatika  αξίζουν</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> σίγουρα την προσοχή σας. Χωρίς προπόνηση και με μικρούς περιορισμούς στα τρόφιμα, δεν θα χάσετε πολύ βάρος. Αν όμως έχετε επιπλέον 5-10 κιλά, μπορείτε να χρησιμοποιήσετε αυτό το συμπλήρωμα.</t>
+    </r>
   </si>
   <si>
     <t>Φωτεινή</t>
@@ -627,7 +1065,16 @@
       <t xml:space="preserve">ελαφριές </t>
     </r>
     <r>
-      <t>και χωρίς προβλήματα, αλλά πραγματικά χάνουν βάρος. Και η σύνθεση είναι απολύτως ασφαλής. Για μένα, το πιο σημαντικό πράγμα είναι να χάσω βάρος χωρίς κίνδυνο για την υγεία. Φυσικά, θα πρέπει να διατηρήσω το αποτέλεσμα με μέτρια προπόνηση και την απαγόρευση των γλυκών. Αλλά αυτό είναι το δεύτερο πράγμα όταν βλέπω το αποτέλεσμα στον καθρέφτη, θέλω πραγματικά να το διατηρήσω την σιλουέτα μου και να παραμείνω λεπτή και όμορφη.</t>
+      <t>και χωρίς προβλήματα, αλλά πραγματικά χάνουν βάρος. Και η σύνθεση είναι απολύτως ασφαλής. Για μένα, το πιο σημαντικό πράγμα είναι να χάσω βάρος χωρίς κίνδυνο για την υγεία. Φυσικά, θα πρέπει να διατηρήσω το αποτέλεσμα με μέτρια προπόνηση και την απαγόρευση των γλυκών. Αλλά αυτό είναι το δεύτερο πράγμα όταν βλέπω το αποτέλεσμα στον καθρέφτη, θέλω πραγματικά</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> να διατηρήσω</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> την σιλουέτα μου και να παραμείνω λεπτή και όμορφη.</t>
     </r>
   </si>
   <si>
@@ -646,13 +1093,44 @@
     <t>29</t>
   </si>
   <si>
-    <t>Μετά τη δεύτερη γέννα, παρατήρησα ότι πάχυνα κυριολεκτικά κατα δυο μεγέθη μεγαλύτερα. Έπρεπε να αλλάξω εντελώς τα ρούχα μου. Ως υποδειγματικό άτομο, πήγα για πρώτη φορά σε έναν ενδοκρινολόγο και έλεγξα, ρώτησα τους γιατρούς αν όλα είναι εντάξει με τις ορμόνες μου. Δεν βρήκαν κάποια συμπτώματα. Ο γιατρός δεν μου έδωσε φάρμακα για την απώλεια βάρους, καθώς δεν είχα έντονη παχυσαρκία. Αποφάσισα να βρω τα κατάλληλα μέσα μόνη μου. Ρώτησα στα φόρουμ για άλλα χάπια αδυνατίσματος και σύγκρινα τις τιμές και τη σύνθεση των προτεινόμενων προϊόντων.</t>
+    <r>
+      <t xml:space="preserve">Μετά τη δεύτερη γέννα, παρατήρησα ότι πάχυνα κυριολεκτικά κατα δυο μεγέθη μεγαλύτερα. Έπρεπε να αλλάξω εντελώς τα ρούχα μου. Ως υποδειγματικό άτομο, πήγα για πρώτη φορά σε έναν ενδοκρινολόγο και </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>έλεγχθηκα</t>
+    </r>
+    <r>
+      <t>, ρώτησα τους γιατρούς αν όλα είναι εντάξει με τις ορμόνες μου. Δεν βρήκαν κάποια συμπτώματα. Ο γιατρός δεν μου έδωσε φάρμακα για την απώλεια βάρους, καθώς δεν είχα έντονη παχυσαρκία. Αποφάσισα να βρω τα κατάλληλα μέσα μόνη μου. Ρώτησα στα φόρουμ για άλλα χάπια αδυνατίσματος και σύγκρινα τις τιμές και τη σύνθεση των προτεινόμενων προϊόντων.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Μου άρεσουν  οι σταγόνες Slimatika. </t>
   </si>
   <si>
-    <t>Άρχισα να πίνω κάθε μέρα. Στην αρχή ζυγιζόμουν αρκετές φορές την ημέρα και ανυσηχούσα επειδή δεν έβλεπα διαφορά. Αλλά μετά προσπαθούσα να κάνω τις δουλειές μου χωρίς να το σκέφτομαι και απο μετά από μια εβδομάδα ζυγίστηκα και είδα την διαφορά, γιατί έχασα 3 κιλά. Όλο αυτό το διάστημα ήμουν στο σπίτι, φορουσα τα καθημερινά μου ρούχα και δεν πρόσεχα αυτές τις αλλαγές. Μετά που ζυγίστηκα και φόρεσα δυο, τρία παντελόνια ειδα ότι πραγματικά έχασα βάρος. Ήμουν πολύ χαρούμενη με αυτό το αποτέλεσμα! Αυτο το προϊόν το προτείνω σε όλους.</t>
+    <r>
+      <t xml:space="preserve">Άρχισα να πίνω κάθε μέρα. Στην αρχή ζυγιζόμουν αρκετές φορές την ημέρα και ανυσηχούσα επειδή δεν έβλεπα διαφορά. Αλλά μετά προσπαθούσα να κάνω τις δουλειές μου χωρίς να το σκέφτομαι </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>και μετά</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> από μια εβδομάδα ζυγίστηκα και είδα την διαφορά, γιατί έχασα 3 κιλά. Όλο αυτό το διάστημα ήμουν στο σπίτι, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>φορούσα</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> τα καθημερινά μου ρούχα και δεν πρόσεχα αυτές τις αλλαγές. Μετά που ζυγίστηκα και φόρεσα δυο, τρία παντελόνια ειδα ότι πραγματικά έχασα βάρος. Ήμουν πολύ χαρούμενη με αυτό το αποτέλεσμα! Αυτο το προϊόν το προτείνω σε όλους.</t>
+    </r>
   </si>
   <si>
     <t>Παραγγέλνετε 2 συσκευασίες ταυτόχρονα</t>
@@ -667,7 +1145,18 @@
     <t>Οι εντυπώσεις από τη χρήση των σταγόνων είναι εξαιρετικές.</t>
   </si>
   <si>
-    <t>Είναι καλύτερα να τα συνδυάσετε με ελαφριές προπονήσεις στο σπίτι. Μείωσα τη μερίδα του φαγητού, αλλά μερικές φορές επέτρεπα στον εαυτό μου να τρώω το βράδυ, καθώς εργάζομαι στο σπίτι μέχρι αργά το βράδυ. Αρχικά, το βάρος μου ήταν 65 κιλά. Μέσα σε ένα μήνα μετά τη χρήση των χαπιών, άρχισα να ζυγίζω 60 κιλά. Είμαι ικανοποιημένη, αλλά θα ήθελα να χάσω λίγο περισσότερο. Επομένως, θα κάνω ένα μικρό διάλειμμα ενώ βρίσκομαι στο γυμναστήριο ή πισίνα και μετά θα επαναλάβω την θεραπεία εάν τα επιπλέον κιλά δεν θα χαθούν εντελώς. Η απώλεια βάρους ήταν πάντα πολύ δύσκολη για μένα. Πρώτον, συνήθισα με έναν μετρημένο τρόπο ζωής και δεν μπορώ να φανταστώ τον εαυτό μου μετά τη δουλειά να πηγαίνω στο γυμναστήριο, αλλά και λόγω του ότι έχω μεγάλη οικογένεια πρέπει να δίνω σε όλους σημασία. Δεν μπορούσα ούτε να προπονηθώ στο σπίτι. Ως εκ τούτου, επέλεξα για εμένα τον συνδυασμό μιας μη αυστηρής διατροφής με τη χρήση των σταγόνων.</t>
+    <r>
+      <t xml:space="preserve">Είναι καλύτερα να τα συνδυάσετε με ελαφριές προπονήσεις στο σπίτι. Μείωσα τη μερίδα του φαγητού, αλλά μερικές φορές επέτρεπα στον εαυτό μου να τρώω το βράδυ, καθώς εργάζομαι στο σπίτι μέχρι αργά το βράδυ. Αρχικά, το βάρος μου ήταν 65 κιλά. Μέσα σε ένα μήνα μετά τη χρήση των </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> σταγόνων</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> άρχισα να ζυγίζω 60 κιλά. Είμαι ικανοποιημένη, αλλά θα ήθελα να χάσω λίγο περισσότερο. Επομένως, θα κάνω ένα μικρό διάλειμμα ενώ βρίσκομαι στο γυμναστήριο ή πισίνα και μετά θα επαναλάβω την θεραπεία εάν τα επιπλέον κιλά δεν θα χαθούν εντελώς. Η απώλεια βάρους ήταν πάντα πολύ δύσκολη για μένα. Πρώτον, συνήθισα με έναν μετρημένο τρόπο ζωής και δεν μπορώ να φανταστώ τον εαυτό μου μετά τη δουλειά να πηγαίνω στο γυμναστήριο, αλλά και λόγω του ότι έχω μεγάλη οικογένεια πρέπει να δίνω σε όλους σημασία. Δεν μπορούσα ούτε να προπονηθώ στο σπίτι. Ως εκ τούτου, επέλεξα για εμένα τον συνδυασμό μιας μη αυστηρής διατροφής με τη χρήση των σταγόνων.</t>
+    </r>
   </si>
   <si>
     <t>Δέσποινα Στέλιου</t>
@@ -679,17 +1168,48 @@
     <t>Κατερίνη, Ελλάδα</t>
   </si>
   <si>
-    <t>Αυτά τα χάπια απλά θα σας μετατρέψουν!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ήθελα πραγματικά να χάσω βάρος πριν από την επέτειο του γάμου μου. Άρχισα να προετοιμάζομαι για μερικούς μήνες. Αλλά η διατροφή δεν βοήθησε πολύ. Και τις προπονήσεις μου τις έχει απαγορεύση ο γιατρός λόγω του ότι έχω πρόβλημα στα γόνατα . Κοίταξα όλα τα θεματικά στα φόρουμ, σε διάφορα σάιτ και τελικά βρήκα το κατάλληλο συμπλήρωμα</t>
+    <r>
+      <t xml:space="preserve">Αυτές </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>οι σταγονες</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> απλά θα σας μετατρέψουν!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Ήθελα πραγματικά να χάσω βάρος πριν από την επέτειο του γάμου μου. Άρχισα να προετοιμάζομαι για μερικούς μήνες. Αλλά η διατροφή δεν </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>με</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> βοήθησε πολύ. Και τις προπονήσεις μου τις έχει απαγορεύση ο γιατρός λόγω του ότι έχω πρόβλημα στα γόνατα . Κοίταξα όλα τα θεματικά στα φόρουμ, σε διάφορα σάιτ και τελικά βρήκα το κατάλληλο συμπλήρωμα</t>
+    </r>
   </si>
   <si>
     <t>με την ασφαλή σύνθεση των Slimatika</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Για ένα μήνα λήψης, καταφέρα να χάσω 2 κιλά. Συνέχισα να παίρνω τα χάπια και τον δεύτερο μήνα. Ως αποτέλεσμα, έχασα βάρος 10 κιλά. Ήταν πολύ αισθητό. Έφυγαν τα παχάκια και το λίπος στην κοιλιά αν και όχι αμέσως. Είμαι απίστευτα ευχαριστημένη με το αποτέλεσμα που επιτεύχθηκε! Φυσικά, έκοψα όσο τους υδατάνθρακες, το πρωινό είναι λίγη βρώμη και φρούτα. Για μεσημεριανό γεύμα, τρώω διάφορες σούπες χωρίς ψωμί. Για βραδινό, άπαχο κρέας, στήθος κοτόπουλου και λίγο τυρί . Πριν πάω για ύπνο πίνω ένα ποτήρι γάλα. Ταυτόχρονα, δεν είχα κανένα αίσθημα πείνας, αλλά ακόμη και με μια τέτοια διατροφή, η ποσότητα των ανθυγιεινών λιπών και υδατανθράκων μειώνεται. Προσπάθησα ήδη να χάσω βάρος σε μια δίαιτα όπως αυτή πριν από αρκετά χρόνια. Έχω χάσει 5 κιλά σε ένα μήνα. Αυτή τη φορά πήρα </t>
+      <t>Για ένα μήνα λήψης, καταφέρα να χάσω 2 κιλά. Συνέχισα να παίρνω</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> τις σταγόνες</t>
+    </r>
+    <r>
+      <t xml:space="preserve">  και τον δεύτερο μήνα. Ως αποτέλεσμα, έχασα βάρος 10 κιλά. Ήταν πολύ αισθητό. Έφυγαν τα παχάκια και το λίπος στην κοιλιά αν και όχι αμέσως. Είμαι απίστευτα ευχαριστημένη με το αποτέλεσμα που επιτεύχθηκε! Φυσικά, έκοψα όσο τους υδατάνθρακες, το πρωινό είναι λίγη βρώμη και φρούτα. Για μεσημεριανό γεύμα, τρώω διάφορες σούπες χωρίς ψωμί. Για βραδινό, άπαχο κρέας, στήθος κοτόπουλου και λίγο τυρί . Πριν πάω για ύπνο πίνω ένα ποτήρι γάλα. Ταυτόχρονα, δεν είχα κανένα αίσθημα πείνας, αλλά ακόμη και με μια τέτοια διατροφή, η ποσότητα των ανθυγιεινών λιπών και υδατανθράκων μειώνεται. Προσπάθησα ήδη να χάσω βάρος σε μια δίαιτα όπως αυτή πριν από αρκετά χρόνια. Έχω χάσει 5 κιλά σε ένα μήνα. Αυτή τη φορά πήρα </t>
     </r>
     <r>
       <rPr>
@@ -698,7 +1218,16 @@
       <t xml:space="preserve">τις </t>
     </r>
     <r>
-      <t>σταγόνες και έχασα 5 κιλά σε 2 εβδομάδες! Νομίζω ότι είναι ένα εκπληκτικό αποτέλεσμα. Το συμπλήρωμα βοηθά πραγματικά στην καύση λίπους. Επιπλέον, ένιωθα πιο ελαφριά και πολύ πιο δραστήρια καθ 'όλη τη διάρκεια της χρήσης των χαπιών. Και η επίδραση της ζωντάνια παρέμεινε για αρκετούς μήνες. Σε γενικές γραμμές, έχασα 20 κιλά σε 2 μήνες. Πολλά ευχαριστώ στον κατασκευαστή για το ότι υπάρχει μια τέτοια θεραπεία που βοηθά στην απώλεια βάρους χωρίς παρενέργειες και πραγματικά  άλλξα την εμφάνισή μου σε σύντομο χρονικό διάστημα!</t>
+      <t xml:space="preserve">σταγόνες και έχασα 5 κιλά σε 2 εβδομάδες! Νομίζω ότι είναι ένα εκπληκτικό αποτέλεσμα. Το συμπλήρωμα βοηθά πραγματικά στην καύση λίπους. Επιπλέον, ένιωθα πιο ελαφριά και πολύ πιο δραστήρια καθ 'όλη τη διάρκεια της χρήσης των </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>σταγόνων</t>
+    </r>
+    <r>
+      <t>. Και η επίδραση της ζωντάνια παρέμεινε για αρκετούς μήνες. Σε γενικές γραμμές, έχασα 20 κιλά σε 2 μήνες. Πολλά ευχαριστώ στον κατασκευαστή για το ότι υπάρχει μια τέτοια θεραπεία που βοηθά στην απώλεια βάρους χωρίς παρενέργειες και πραγματικά  άλλξα την εμφάνισή μου σε σύντομο χρονικό διάστημα!</t>
     </r>
   </si>
   <si>
@@ -1932,21 +2461,20 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="17.0"/>
       <color rgb="FF454545"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1957,6 +2485,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1980,45 +2514,55 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2248,43 +2792,43 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
@@ -2302,139 +2846,139 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
@@ -2452,19 +2996,19 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2"/>
@@ -2476,7 +3020,7 @@
       <c r="B39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="5"/>
@@ -2494,73 +3038,73 @@
       <c r="B42" s="2"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B54" s="2"/>
@@ -2572,2215 +3116,3599 @@
       <c r="B55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="5"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B58" s="2"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B62" s="2"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>33</v>
+      <c r="A64" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>57</v>
+      <c r="A66" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B66" s="5"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>58</v>
+      <c r="A67" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B67" s="2"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="5" t="s">
-        <v>60</v>
+      <c r="A70" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B70" s="2"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>61</v>
+      <c r="A71" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B71" s="5"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B72" s="2"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
-        <v>62</v>
+      <c r="A73" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="2" t="s">
-        <v>63</v>
+      <c r="A74" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B74" s="2"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B75" s="2"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>64</v>
+      <c r="A76" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>65</v>
+      <c r="A77" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="B77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6" t="s">
-        <v>66</v>
+      <c r="A78" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="B78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>67</v>
+      <c r="A79" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B79" s="2"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B80" s="2"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>68</v>
+      <c r="A81" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B81" s="2"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>69</v>
+      <c r="A82" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B82" s="2"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B84" s="2"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
-        <v>71</v>
+      <c r="A85" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B85" s="5"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
-        <v>72</v>
+      <c r="A86" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B86" s="2"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="2"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>73</v>
+      <c r="A88" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="B88" s="2"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
-        <v>74</v>
+      <c r="A89" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B89" s="2"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B90" s="5"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>76</v>
+      <c r="A91" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="B91" s="2"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B92" s="2"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
-        <v>77</v>
+      <c r="A93" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B93" s="5"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>78</v>
+      <c r="A94" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>79</v>
+      <c r="A95" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B95" s="5"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="9" t="s">
-        <v>80</v>
+      <c r="A96" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="B96" s="2"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>83</v>
+      <c r="A99" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B99" s="5"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="5" t="s">
-        <v>84</v>
+      <c r="A101" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B101" s="2"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>85</v>
+      <c r="A102" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B102" s="2"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B103" s="2"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>86</v>
+      <c r="A104" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>87</v>
+      <c r="A106" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B106" s="5"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B107" s="2"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>88</v>
+      <c r="A108" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>89</v>
+      <c r="A109" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B109" s="2"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>90</v>
+      <c r="A110" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B110" s="5"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>92</v>
+      <c r="A112" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B112" s="5"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>93</v>
+      <c r="A113" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="B113" s="5"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>94</v>
+      <c r="A114" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B114" s="5"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>95</v>
+      <c r="A115" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="B115" s="2"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>96</v>
+      <c r="A116" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B116" s="5"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="10" t="s">
-        <v>97</v>
+      <c r="A117" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="B117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>98</v>
+      <c r="A118" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B118" s="5"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B119" s="2"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>99</v>
+      <c r="A120" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>100</v>
+      <c r="A121" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B121" s="2"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="2" t="s">
-        <v>101</v>
+      <c r="A123" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B123" s="2"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B124" s="2"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>102</v>
+      <c r="A125" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B125" s="2"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>103</v>
+      <c r="A126" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B126" s="2"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B127" s="2"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B128" s="2"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
-        <v>104</v>
+      <c r="A129" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B129" s="5"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" s="5"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>106</v>
+      <c r="A131" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B131" s="5"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B132" s="2"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="2" t="s">
-        <v>107</v>
+      <c r="A133" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B134" s="2"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="5" t="s">
-        <v>101</v>
+      <c r="A135" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B135" s="2"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>108</v>
+      <c r="A136" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B136" s="2"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>109</v>
+      <c r="A137" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="B137" s="5"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B138" s="2"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B139" s="2"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>110</v>
+      <c r="A140" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B140" s="5"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B141" s="5"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>112</v>
+      <c r="A142" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B142" s="5"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>113</v>
+      <c r="A143" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="B143" s="2"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="3" t="s">
-        <v>114</v>
+      <c r="A144" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B144" s="5"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="6" t="s">
-        <v>115</v>
+      <c r="A145" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="B145" s="2"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="3" t="s">
-        <v>116</v>
+      <c r="A146" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B146" s="5"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B147" s="2"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="2" t="s">
-        <v>84</v>
+      <c r="A148" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B148" s="2"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="2" t="s">
-        <v>117</v>
+      <c r="A149" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B149" s="2"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="5" t="s">
-        <v>101</v>
+      <c r="A151" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B151" s="2"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>118</v>
+      <c r="A152" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B152" s="2"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="3" t="s">
-        <v>119</v>
+      <c r="A153" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="3" t="s">
-        <v>120</v>
+      <c r="A154" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B154" s="2"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B155" s="2"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="3" t="s">
-        <v>121</v>
+      <c r="A156" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B156" s="5"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B157" s="2"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="6" t="s">
-        <v>123</v>
+      <c r="A158" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="B158" s="5"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B159" s="2"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>124</v>
+      <c r="A160" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B160" s="5"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="2" t="s">
-        <v>125</v>
+      <c r="A161" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B161" s="2"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B162" s="2"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="5" t="s">
-        <v>126</v>
+      <c r="A163" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="3" t="s">
-        <v>127</v>
+      <c r="A164" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B164" s="2"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="3" t="s">
-        <v>128</v>
+      <c r="A165" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B165" s="5"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="5" t="s">
-        <v>129</v>
+      <c r="A166" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="B166" s="2"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B167" s="2"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="3" t="s">
-        <v>130</v>
+      <c r="A168" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B168" s="5"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="6" t="s">
-        <v>131</v>
+      <c r="A169" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="B169" s="2"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="3" t="s">
-        <v>132</v>
+      <c r="A170" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B170" s="5"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="5" t="s">
-        <v>133</v>
+      <c r="A171" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="B171" s="2"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="3" t="s">
-        <v>134</v>
+      <c r="A172" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B172" s="5"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B173" s="2"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="3" t="s">
-        <v>135</v>
+      <c r="A174" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="2" t="s">
-        <v>136</v>
+      <c r="A175" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B175" s="2"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B176" s="2"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="5" t="s">
-        <v>137</v>
+      <c r="A177" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="3" t="s">
-        <v>138</v>
+      <c r="A178" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B178" s="2"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B179" s="5"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B180" s="2"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B181" s="2"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="3" t="s">
-        <v>140</v>
+      <c r="A182" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B182" s="5"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B183" s="2"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="2" t="s">
-        <v>141</v>
+      <c r="A184" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B184" s="2"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B185" s="2"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="5" t="s">
-        <v>142</v>
+      <c r="A186" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="B186" s="2"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="3" t="s">
-        <v>143</v>
+      <c r="A187" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B187" s="2"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B188" s="5"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B189" s="2"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="6" t="s">
-        <v>145</v>
+      <c r="A190" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B190" s="5"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B191" s="2"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="2" t="s">
-        <v>146</v>
+      <c r="A192" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B192" s="2"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B193" s="2"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="2" t="s">
-        <v>142</v>
+      <c r="A194" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B195" s="2"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="3" t="s">
-        <v>147</v>
+      <c r="A196" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B196" s="5"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="5" t="s">
-        <v>148</v>
+      <c r="A197" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="B197" s="2"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B198" s="2"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="3" t="s">
-        <v>149</v>
+      <c r="A199" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B199" s="5"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B201" s="2"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="2" t="s">
-        <v>150</v>
+      <c r="A202" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B202" s="2"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="5" t="s">
-        <v>151</v>
+      <c r="A204" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="B204" s="2"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="3" t="s">
-        <v>152</v>
+      <c r="A205" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B205" s="2"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="6" t="s">
-        <v>153</v>
+      <c r="A206" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="B206" s="5"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="5" t="s">
-        <v>154</v>
+      <c r="A207" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B207" s="2"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B208" s="2"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B209" s="5"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B210" s="2"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="2" t="s">
-        <v>156</v>
+      <c r="A211" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B211" s="2"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B212" s="2"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="2" t="s">
-        <v>142</v>
+      <c r="A213" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B214" s="2"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="5" t="s">
-        <v>67</v>
+      <c r="A216" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B217" s="2"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="3" t="s">
-        <v>158</v>
+      <c r="A218" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B218" s="5"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B219" s="2"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="2" t="s">
-        <v>84</v>
+      <c r="A220" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B220" s="2"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="2" t="s">
-        <v>159</v>
+      <c r="A221" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B221" s="2"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B222" s="2"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="2" t="s">
-        <v>160</v>
+      <c r="A223" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B223" s="2"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B224" s="2"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="3" t="s">
-        <v>161</v>
+      <c r="A225" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="B225" s="5"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="5" t="s">
-        <v>67</v>
+      <c r="A226" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B226" s="2"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B227" s="2"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="11" t="s">
-        <v>162</v>
+      <c r="A228" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="B228" s="5"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="6" t="s">
-        <v>163</v>
+      <c r="A229" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B229" s="5"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="6" t="s">
-        <v>164</v>
+      <c r="A230" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B230" s="5"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B231" s="2"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="3" t="s">
-        <v>165</v>
+      <c r="A232" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="B232" s="5"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="2" t="s">
-        <v>146</v>
+      <c r="A233" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B233" s="2"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B234" s="2"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="2" t="s">
-        <v>166</v>
+      <c r="A235" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B235" s="2"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B236" s="2"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="3" t="s">
-        <v>167</v>
+      <c r="A237" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B237" s="5"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="5" t="s">
-        <v>168</v>
+      <c r="A238" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B238" s="2"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B239" s="2"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="12" t="s">
-        <v>169</v>
+      <c r="A240" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="B240" s="5"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B241" s="2"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="3" t="s">
-        <v>171</v>
+      <c r="A242" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B242" s="5"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B243" s="2"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B244" s="2"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="2" t="s">
-        <v>172</v>
+      <c r="A245" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B245" s="2"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B246" s="2"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="5" t="s">
-        <v>166</v>
+      <c r="A247" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="B247" s="2"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="3" t="s">
-        <v>173</v>
+      <c r="A248" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B248" s="2"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="6" t="s">
-        <v>174</v>
+      <c r="A249" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B249" s="5"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="5" t="s">
-        <v>67</v>
+      <c r="A250" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B250" s="2"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B251" s="2"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="4" t="s">
-        <v>175</v>
+      <c r="A252" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B252" s="5"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B253" s="2"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="2" t="s">
-        <v>176</v>
+      <c r="A254" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="B254" s="2"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="2" t="s">
+      <c r="A255" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B255" s="2"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="2" t="s">
-        <v>177</v>
+      <c r="A256" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B256" s="2"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B257" s="2"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="3" t="s">
-        <v>178</v>
+      <c r="A258" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="B258" s="5"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="5" t="s">
-        <v>67</v>
+      <c r="A259" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B259" s="2"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B260" s="2"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="3" t="s">
-        <v>179</v>
+      <c r="A261" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="B261" s="5"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="9" t="s">
-        <v>180</v>
+      <c r="A262" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="B262" s="2"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="3" t="s">
-        <v>181</v>
+      <c r="A263" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B263" s="5"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B264" s="2"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="2" t="s">
+      <c r="A265" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B265" s="2"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="2" t="s">
-        <v>182</v>
+      <c r="A266" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="B266" s="2"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B267" s="2"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="2" t="s">
-        <v>183</v>
+      <c r="A268" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B268" s="2"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B269" s="2"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="6" t="s">
-        <v>184</v>
+      <c r="A270" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="B270" s="5"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="5" t="s">
-        <v>185</v>
+      <c r="A271" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="B271" s="2"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B272" s="2"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B273" s="5"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B274" s="2"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="2" t="s">
-        <v>187</v>
+      <c r="A275" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B275" s="2"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="2" t="s">
+      <c r="A276" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B276" s="2"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="5" t="s">
-        <v>188</v>
+      <c r="A277" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="B277" s="2"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="3" t="s">
-        <v>189</v>
+      <c r="A278" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="B278" s="2"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="3" t="s">
-        <v>190</v>
+      <c r="A279" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B279" s="5"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="5" t="s">
-        <v>191</v>
+      <c r="A280" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="B280" s="2"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B281" s="2"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B282" s="5"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="6" t="s">
-        <v>193</v>
+      <c r="A283" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B283" s="2"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="13" t="s">
-        <v>194</v>
+      <c r="A284" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="B284" s="5"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B285" s="2"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="3" t="s">
-        <v>195</v>
+      <c r="A286" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="B286" s="5"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="3" t="s">
-        <v>196</v>
+      <c r="A287" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B287" s="2"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="2" t="s">
+      <c r="A288" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B288" s="2"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="2" t="s">
-        <v>197</v>
+      <c r="A289" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B289" s="2"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B290" s="2"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="6" t="s">
-        <v>198</v>
+      <c r="A291" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="B291" s="5"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="5" t="s">
-        <v>67</v>
+      <c r="A292" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B292" s="2"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B293" s="2"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B294" s="5"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B295" s="2"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="3" t="s">
-        <v>200</v>
+      <c r="A296" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="B296" s="2"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="2" t="s">
+      <c r="A297" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B297" s="2"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="5" t="s">
-        <v>201</v>
+      <c r="A298" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="B298" s="2"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="3" t="s">
-        <v>202</v>
+      <c r="A299" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="B299" s="2"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="3" t="s">
-        <v>203</v>
+      <c r="A300" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="B300" s="5"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="5" t="s">
-        <v>168</v>
+      <c r="A301" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B301" s="2"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B302" s="2"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="3" t="s">
-        <v>204</v>
+      <c r="A303" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="B303" s="5"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="6" t="s">
-        <v>205</v>
+      <c r="A304" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="B304" s="2"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B305" s="5"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B306" s="2"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B307" s="2"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="3" t="s">
-        <v>207</v>
+      <c r="A308" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="A309" s="17"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="A310" s="17"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="A311" s="17"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="A312" s="17"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="A313" s="17"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="A314" s="17"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="A315" s="17"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="A316" s="17"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="A317" s="17"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="A318" s="17"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="A319" s="17"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="A320" s="17"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="A321" s="17"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="A322" s="17"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="A323" s="17"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="A324" s="17"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="A325" s="17"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="A326" s="17"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="A327" s="17"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="A328" s="17"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="A329" s="17"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="A330" s="17"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="A331" s="17"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="A332" s="17"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="A333" s="17"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="A334" s="17"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="A335" s="17"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="A336" s="17"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="A337" s="17"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="A338" s="17"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="A339" s="17"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="A340" s="17"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="A341" s="17"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="A342" s="17"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="A343" s="17"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="A344" s="17"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="A345" s="17"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="A346" s="17"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="A347" s="17"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="A348" s="17"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="A349" s="17"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="A350" s="17"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="A351" s="17"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="A352" s="17"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="A353" s="17"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="A354" s="17"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="A355" s="17"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="A356" s="17"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="A357" s="17"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="A358" s="17"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="A359" s="17"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="A360" s="17"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="A361" s="17"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="A362" s="17"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="A363" s="17"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="A364" s="17"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="A365" s="17"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="A366" s="17"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="A367" s="17"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="A368" s="17"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="A369" s="17"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="A370" s="17"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="A371" s="17"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="A372" s="17"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="A373" s="17"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="A374" s="17"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="A375" s="17"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="A376" s="17"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="A377" s="17"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="A378" s="17"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="A379" s="17"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="A380" s="17"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="A381" s="17"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="A382" s="17"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="A383" s="17"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="A384" s="17"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="A385" s="17"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="A386" s="17"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="A387" s="17"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="A388" s="17"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="A389" s="17"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="A390" s="17"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="A391" s="17"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="A392" s="17"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="A393" s="17"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="A394" s="17"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="A395" s="17"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="A396" s="17"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="A397" s="17"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="A398" s="17"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="A399" s="17"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="A400" s="17"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="A401" s="17"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="A402" s="17"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="A403" s="17"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="A404" s="17"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="A405" s="17"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="A406" s="17"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="A407" s="17"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="A408" s="17"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="A409" s="17"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="A410" s="17"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="A411" s="17"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="A412" s="17"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="A413" s="17"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="A414" s="17"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="A415" s="17"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="A416" s="17"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="A417" s="17"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="A418" s="17"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="A419" s="17"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="A420" s="17"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="A421" s="17"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="A422" s="17"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="A423" s="17"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="A424" s="17"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="A425" s="17"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="A426" s="17"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="A427" s="17"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="A428" s="17"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="A429" s="17"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="A430" s="17"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="A431" s="17"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="A432" s="17"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="A433" s="17"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="A434" s="17"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="A435" s="17"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="A436" s="17"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="A437" s="17"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="A438" s="17"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="A439" s="17"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="A440" s="17"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="A441" s="17"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="A442" s="17"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="A443" s="17"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="A444" s="17"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="A445" s="17"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="A446" s="17"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="A447" s="17"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="A448" s="17"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="A449" s="17"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="A450" s="17"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="A451" s="17"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="A452" s="17"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="A453" s="17"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="A454" s="17"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="A455" s="17"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="A456" s="17"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="A457" s="17"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="A458" s="17"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="A459" s="17"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="A460" s="17"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="A461" s="17"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="A462" s="17"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="A463" s="17"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="A464" s="17"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="A465" s="17"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="A466" s="17"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="A467" s="17"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="A468" s="17"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="A469" s="17"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="A470" s="17"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="A471" s="17"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="A472" s="17"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="A473" s="17"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="A474" s="17"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="A475" s="17"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="A476" s="17"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="A477" s="17"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="A478" s="17"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="A479" s="17"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="A480" s="17"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="A481" s="17"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="A482" s="17"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="A483" s="17"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="A484" s="17"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="A485" s="17"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="A486" s="17"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="A487" s="17"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="A488" s="17"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="A489" s="17"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="A490" s="17"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="A491" s="17"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="17"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="A493" s="17"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="A494" s="17"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="A495" s="17"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="17"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="17"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="17"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="17"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="17"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="17"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="A502" s="17"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="A503" s="17"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="17"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="A505" s="17"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="A506" s="17"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="A507" s="17"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="A508" s="17"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="A509" s="17"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="A510" s="17"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="A511" s="17"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="A512" s="17"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="A513" s="17"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="A514" s="17"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="A515" s="17"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="A516" s="17"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="A517" s="17"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="A518" s="17"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="A519" s="17"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="A520" s="17"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="A521" s="17"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="A522" s="17"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="A523" s="17"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="A524" s="17"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="A525" s="17"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="A526" s="17"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="A527" s="17"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="A528" s="17"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="A529" s="17"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="A530" s="17"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="A531" s="17"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="A532" s="17"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="A533" s="17"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="A534" s="17"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="A535" s="17"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="A536" s="17"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="A537" s="17"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="A538" s="17"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="A539" s="17"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="A540" s="17"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="A541" s="17"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="A542" s="17"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="A543" s="17"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="A544" s="17"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="A545" s="17"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="A546" s="17"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="A547" s="17"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="A548" s="17"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="A549" s="17"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="A550" s="17"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="A551" s="17"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="A552" s="17"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="A553" s="17"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="A554" s="17"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="A555" s="17"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="A556" s="17"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="A557" s="17"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="A558" s="17"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="A559" s="17"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="A560" s="17"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="A561" s="17"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="A562" s="17"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="A563" s="17"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="A564" s="17"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="A565" s="17"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="A566" s="17"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="A567" s="17"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="A568" s="17"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="A569" s="17"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="A570" s="17"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="A571" s="17"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="A572" s="17"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="A573" s="17"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="A574" s="17"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="A575" s="17"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="A576" s="17"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="A577" s="17"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="A578" s="17"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="A579" s="17"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="A580" s="17"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="A581" s="17"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="A582" s="17"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="A583" s="17"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="A584" s="17"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="A585" s="17"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="A586" s="17"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="A587" s="17"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="A588" s="17"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="A589" s="17"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="A590" s="17"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="A591" s="17"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="A592" s="17"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="A593" s="17"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="A594" s="17"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="A595" s="17"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="A596" s="17"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="A597" s="17"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="A598" s="17"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="A599" s="17"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="A600" s="17"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="A601" s="17"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="A602" s="17"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="A603" s="17"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="A604" s="17"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="A605" s="17"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="A606" s="17"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="A607" s="17"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="A608" s="17"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="A609" s="17"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="A610" s="17"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="A611" s="17"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="A612" s="17"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="A613" s="17"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="A614" s="17"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="A615" s="17"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="A616" s="17"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="A617" s="17"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="A618" s="17"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="A619" s="17"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="A620" s="17"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="A621" s="17"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="A622" s="17"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="A623" s="17"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="A624" s="17"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="A625" s="17"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="A626" s="17"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="A627" s="17"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="A628" s="17"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="A629" s="17"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="A630" s="17"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="A631" s="17"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="A632" s="17"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="A633" s="17"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="A634" s="17"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="A635" s="17"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="A636" s="17"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="A637" s="17"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="A638" s="17"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="A639" s="17"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="A640" s="17"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="A641" s="17"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="A642" s="17"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="A643" s="17"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="A644" s="17"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="A645" s="17"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="A646" s="17"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="A647" s="17"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="A648" s="17"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="A649" s="17"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="A650" s="17"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="A651" s="17"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="A652" s="17"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="A653" s="17"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="A654" s="17"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="A655" s="17"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="A656" s="17"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="A657" s="17"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="A658" s="17"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="A659" s="17"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="A660" s="17"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="A661" s="17"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="A662" s="17"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="A663" s="17"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="A664" s="17"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="A665" s="17"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="A666" s="17"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="A667" s="17"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="A668" s="17"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="A669" s="17"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="A670" s="17"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="A671" s="17"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="A672" s="17"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="A673" s="17"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="A674" s="17"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="A675" s="17"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="A676" s="17"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="A677" s="17"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="A678" s="17"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="A679" s="17"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="A680" s="17"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="A681" s="17"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="A682" s="17"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="A683" s="17"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="A684" s="17"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="A685" s="17"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="A686" s="17"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="A687" s="17"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="A688" s="17"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="A689" s="17"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="A690" s="17"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="A691" s="17"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="A692" s="17"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="A693" s="17"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="A694" s="17"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="A695" s="17"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="A696" s="17"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="A697" s="17"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="A698" s="17"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="A699" s="17"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="A700" s="17"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="A701" s="17"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="A702" s="17"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="A703" s="17"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="A704" s="17"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="A705" s="17"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="A706" s="17"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="A707" s="17"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="A708" s="17"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="A709" s="17"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="A710" s="17"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="A711" s="17"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="A712" s="17"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="A713" s="17"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="A714" s="17"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="A715" s="17"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="A716" s="17"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="A717" s="17"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="A718" s="17"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="A719" s="17"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="A720" s="17"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="A721" s="17"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="A722" s="17"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="A723" s="17"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="A724" s="17"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="A725" s="17"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="A726" s="17"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="A727" s="17"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="A728" s="17"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="A729" s="17"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="A730" s="17"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="A731" s="17"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="A732" s="17"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="A733" s="17"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="A734" s="17"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="A735" s="17"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="A736" s="17"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="A737" s="17"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="A738" s="17"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="A739" s="17"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="A740" s="17"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="A741" s="17"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="A742" s="17"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="A743" s="17"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="A744" s="17"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="A745" s="17"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="A746" s="17"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="A747" s="17"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="A748" s="17"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="A749" s="17"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="A750" s="17"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="A751" s="17"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="A752" s="17"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="A753" s="17"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="A754" s="17"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="A755" s="17"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="A756" s="17"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="A757" s="17"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="A758" s="17"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="A759" s="17"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="A760" s="17"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="A761" s="17"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="A762" s="17"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="A763" s="17"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="A764" s="17"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="A765" s="17"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="A766" s="17"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="A767" s="17"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="A768" s="17"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="A769" s="17"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="A770" s="17"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="A771" s="17"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="A772" s="17"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="A773" s="17"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="A774" s="17"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="A775" s="17"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="A776" s="17"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="A777" s="17"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="A778" s="17"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="A779" s="17"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="A780" s="17"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="A781" s="17"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="A782" s="17"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="A783" s="17"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="A784" s="17"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="A785" s="17"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="A786" s="17"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="A787" s="17"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="A788" s="17"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="A789" s="17"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="A790" s="17"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="A791" s="17"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="A792" s="17"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="A793" s="17"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="A794" s="17"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="A795" s="17"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="A796" s="17"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="A797" s="17"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="A798" s="17"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="A799" s="17"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="A800" s="17"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="A801" s="17"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="A802" s="17"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="A803" s="17"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="A804" s="17"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="A805" s="17"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="A806" s="17"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="A807" s="17"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="A808" s="17"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="A809" s="17"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="A810" s="17"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="A811" s="17"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="A812" s="17"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="A813" s="17"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="A814" s="17"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="A815" s="17"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="A816" s="17"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="A817" s="17"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="A818" s="17"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="A819" s="17"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="A820" s="17"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="A821" s="17"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="A822" s="17"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="A823" s="17"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="A824" s="17"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="A825" s="17"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="A826" s="17"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="A827" s="17"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="A828" s="17"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="A829" s="17"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="A830" s="17"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="A831" s="17"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="A832" s="17"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="A833" s="17"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="A834" s="17"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="A835" s="17"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="A836" s="17"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="A837" s="17"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="A838" s="17"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="A839" s="17"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="A840" s="17"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="A841" s="17"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="A842" s="17"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="A843" s="17"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="A844" s="17"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="A845" s="17"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="A846" s="17"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="A847" s="17"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="A848" s="17"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="A849" s="17"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="A850" s="17"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="A851" s="17"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="A852" s="17"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="A853" s="17"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="A854" s="17"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="A855" s="17"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="A856" s="17"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="A857" s="17"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="A858" s="17"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="A859" s="17"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="A860" s="17"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="A861" s="17"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="A862" s="17"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="A863" s="17"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="A864" s="17"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="A865" s="17"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="A866" s="17"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="A867" s="17"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="A868" s="17"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="A869" s="17"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="A870" s="17"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="A871" s="17"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="A872" s="17"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="A873" s="17"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="A874" s="17"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="A875" s="17"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="A876" s="17"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="A877" s="17"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="A878" s="17"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="A879" s="17"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="A880" s="17"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="A881" s="17"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="A882" s="17"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="A883" s="17"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="A884" s="17"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="A885" s="17"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="A886" s="17"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="A887" s="17"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="A888" s="17"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="A889" s="17"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="A890" s="17"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="A891" s="17"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="A892" s="17"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="A893" s="17"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="A894" s="17"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="A895" s="17"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="A896" s="17"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="A897" s="17"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="A898" s="17"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="A899" s="17"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="A900" s="17"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="A901" s="17"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="A902" s="17"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="A903" s="17"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="A904" s="17"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="A905" s="17"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="A906" s="17"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="A907" s="17"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="A908" s="17"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="A909" s="17"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="A910" s="17"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="A911" s="17"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="A912" s="17"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="A913" s="17"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="A914" s="17"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="A915" s="17"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="A916" s="17"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="A917" s="17"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="A918" s="17"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="A919" s="17"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="A920" s="17"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="A921" s="17"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="A922" s="17"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="A923" s="17"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="A924" s="17"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="A925" s="17"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="A926" s="17"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="A927" s="17"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="A928" s="17"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="A929" s="17"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="A930" s="17"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="A931" s="17"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="A932" s="17"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="A933" s="17"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="A934" s="17"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="A935" s="17"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="A936" s="17"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="A937" s="17"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="A938" s="17"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="A939" s="17"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="A940" s="17"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="17"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="A942" s="17"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="A943" s="17"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="A944" s="17"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="A945" s="17"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="A946" s="17"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="A947" s="17"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="A948" s="17"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="A949" s="17"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="A950" s="17"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="A951" s="17"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="A952" s="17"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="A953" s="17"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="A954" s="17"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="A955" s="17"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="A956" s="17"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="A957" s="17"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="A958" s="17"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="A959" s="17"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="A960" s="17"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="A961" s="17"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="A962" s="17"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="A963" s="17"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="A964" s="17"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="A965" s="17"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="A966" s="17"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="A967" s="17"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="A968" s="17"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="A969" s="17"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="A970" s="17"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="A971" s="17"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="A972" s="17"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="A973" s="17"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="A974" s="17"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="A975" s="17"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="A976" s="17"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="A977" s="17"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="A978" s="17"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="A979" s="17"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="A980" s="17"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="A981" s="17"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="A982" s="17"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="A983" s="17"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="A984" s="17"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="A985" s="17"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="A986" s="17"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="A987" s="17"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="A988" s="17"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="A989" s="17"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="A990" s="17"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="A991" s="17"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="A992" s="17"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="A993" s="17"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="A994" s="17"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="A995" s="17"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="A996" s="17"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="A997" s="17"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="A998" s="17"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="A999" s="17"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="A1000" s="17"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4798,118 +6726,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>208</v>
+      <c r="A1" s="18" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>209</v>
+      <c r="A2" s="18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>210</v>
+      <c r="A3" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>211</v>
+      <c r="A4" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>212</v>
+      <c r="A5" s="18" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>213</v>
+      <c r="A6" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>214</v>
+      <c r="A7" s="18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>215</v>
+      <c r="A8" s="18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>216</v>
+      <c r="A9" s="18" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>217</v>
+      <c r="A10" s="18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>218</v>
+      <c r="A11" s="18" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>219</v>
+      <c r="A12" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>220</v>
+      <c r="A13" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>221</v>
+      <c r="A14" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>222</v>
+      <c r="A15" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>223</v>
+      <c r="A16" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>224</v>
+      <c r="A17" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>225</v>
+      <c r="A18" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>226</v>
+      <c r="A19" s="18" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>227</v>
+      <c r="A20" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>228</v>
+      <c r="A21" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="14" t="s">
-        <v>229</v>
+      <c r="A22" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>230</v>
+      <c r="A23" s="18" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
